--- a/www/ig/fhir/eclaire/all-profiles.xlsx
+++ b/www/ig/fhir/eclaire/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T12:15:34+00:00</t>
+    <t>2023-10-24T08:19:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
